--- a/data/trans_orig/IP3103-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3103-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FA5DF2-21CD-439B-9508-E3A5C63E9F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8531002-B920-451D-BA99-0A2A0F821A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7DC7DFA6-FBD6-4223-A371-CC9E1ED3F044}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33A87B9D-5522-4154-9AE1-F3DE5DC8C418}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="723">
   <si>
     <t>Menores según la frecuencia de tomar pescado, carne en 2007 (Tasa respuesta: 93,39%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -94,13 +94,13 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>25,69%</t>
+    <t>24,83%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>11,99%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>3 o 4 veces a la semana</t>
@@ -109,25 +109,28 @@
     <t>52,02%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>62,0%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>69,29%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
   </si>
   <si>
     <t>5 o 6 veces a la semana</t>
@@ -136,2059 +139,2074 @@
     <t>40,26%</t>
   </si>
   <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar pescado, carne en 2016 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2012 (Tasa respuesta: 91,71%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar pescado, carne en 2015 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>29,57%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>28,97%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C519C1-053D-4D76-96CA-FAC250841E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B5010-9921-4A5C-98F5-E6E00459E1E8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2859,16 +2877,16 @@
         <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -2877,13 +2895,13 @@
         <v>8958</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -2892,13 +2910,13 @@
         <v>8365</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2907,19 +2925,19 @@
         <v>17323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2979,13 +2997,13 @@
         <v>22248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -2994,13 +3012,13 @@
         <v>22010</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -3009,18 +3027,18 @@
         <v>44258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3050,13 @@
         <v>557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3053,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3062,13 +3080,13 @@
         <v>557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3101,13 @@
         <v>8129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3098,13 +3116,13 @@
         <v>9936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -3113,13 +3131,13 @@
         <v>18065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3152,13 @@
         <v>58187</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>81</v>
@@ -3149,13 +3167,13 @@
         <v>53705</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>169</v>
@@ -3164,19 +3182,19 @@
         <v>111891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>79</v>
@@ -3185,13 +3203,13 @@
         <v>52292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3200,13 +3218,13 @@
         <v>41895</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -3215,19 +3233,19 @@
         <v>94187</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3236,13 +3254,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3287,13 +3305,13 @@
         <v>119891</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
@@ -3302,13 +3320,13 @@
         <v>107573</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>343</v>
@@ -3317,13 +3335,13 @@
         <v>227464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3502,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>101</v>
@@ -3535,7 +3553,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -3550,7 +3568,7 @@
         <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3559,13 +3577,13 @@
         <v>8005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -3574,13 +3592,13 @@
         <v>16183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3613,13 @@
         <v>200862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
         <v>290</v>
@@ -3610,13 +3628,13 @@
         <v>181394</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>595</v>
@@ -3625,18 +3643,18 @@
         <v>382257</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3654,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3663,10 +3681,10 @@
         <v>1673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>131</v>
@@ -3792,7 +3810,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>58</v>
@@ -3843,7 +3861,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -3903,13 +3921,13 @@
         <v>137617</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
         <v>212</v>
@@ -3918,13 +3936,13 @@
         <v>127563</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
         <v>425</v>
@@ -3933,13 +3951,13 @@
         <v>265180</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4004,13 @@
         <v>1471</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,10 +4028,10 @@
         <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -4022,13 +4040,13 @@
         <v>23364</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -4037,10 +4055,10 @@
         <v>38664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>183</v>
@@ -4100,7 +4118,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>122</v>
@@ -4151,7 +4169,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>20</v>
@@ -4211,13 +4229,13 @@
         <v>193890</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>260</v>
@@ -4226,13 +4244,13 @@
         <v>198820</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>545</v>
@@ -4241,13 +4259,13 @@
         <v>392709</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,10 +4285,10 @@
         <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -4279,7 +4297,7 @@
         <v>2315</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>214</v>
@@ -4333,10 +4351,10 @@
         <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>185</v>
@@ -4345,10 +4363,10 @@
         <v>124941</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>226</v>
@@ -4408,7 +4426,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>371</v>
@@ -4459,7 +4477,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>42</v>
@@ -4474,7 +4492,7 @@
         <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
@@ -4483,13 +4501,13 @@
         <v>25494</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>82</v>
@@ -4498,13 +4516,13 @@
         <v>53815</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4537,13 @@
         <v>674508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>951</v>
@@ -4534,13 +4552,13 @@
         <v>637360</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1965</v>
@@ -4549,18 +4567,18 @@
         <v>1311868</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A4BE9-3562-45F7-BCFD-CDF96892101F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B2E2D9-46F3-4EFB-9A61-288FBAF264D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,7 +4616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4711,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4726,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4741,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4774,13 @@
         <v>3419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4771,13 +4789,13 @@
         <v>4876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4786,13 +4804,13 @@
         <v>8296</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4825,13 @@
         <v>8347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4822,13 +4840,13 @@
         <v>5436</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4837,19 +4855,19 @@
         <v>13783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -4858,13 +4876,13 @@
         <v>9407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4873,13 +4891,13 @@
         <v>8072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4888,19 +4906,19 @@
         <v>17479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4909,13 +4927,13 @@
         <v>2529</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4924,10 +4942,10 @@
         <v>3138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>289</v>
@@ -4960,13 +4978,13 @@
         <v>23702</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4975,13 +4993,13 @@
         <v>21523</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>51</v>
@@ -4990,18 +5008,18 @@
         <v>45225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5118,10 +5136,10 @@
         <v>307</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -5130,10 +5148,10 @@
         <v>50211</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>311</v>
@@ -5157,7 +5175,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>45</v>
@@ -5208,7 +5226,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -5223,7 +5241,7 @@
         <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5232,13 +5250,13 @@
         <v>14399</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -5247,13 +5265,13 @@
         <v>28856</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5286,13 @@
         <v>118631</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>155</v>
@@ -5283,13 +5301,13 @@
         <v>111108</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>323</v>
@@ -5298,13 +5316,13 @@
         <v>229739</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5339,13 @@
         <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5336,13 +5354,13 @@
         <v>1956</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5351,13 +5369,13 @@
         <v>2609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5390,13 @@
         <v>33690</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5387,13 +5405,13 @@
         <v>32341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -5402,13 +5420,13 @@
         <v>66031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5441,13 @@
         <v>87031</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
         <v>129</v>
@@ -5438,13 +5456,13 @@
         <v>84615</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M18" s="7">
         <v>256</v>
@@ -5453,19 +5471,19 @@
         <v>171645</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>81</v>
@@ -5474,13 +5492,13 @@
         <v>55035</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5489,13 +5507,13 @@
         <v>53575</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -5504,19 +5522,19 @@
         <v>108610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>41</v>
@@ -5525,13 +5543,13 @@
         <v>28299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5540,13 +5558,13 @@
         <v>17782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -5555,13 +5573,13 @@
         <v>46081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5594,13 @@
         <v>204708</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
         <v>294</v>
@@ -5591,13 +5609,13 @@
         <v>190269</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>591</v>
@@ -5606,18 +5624,18 @@
         <v>394976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5629,13 +5647,13 @@
         <v>1274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>215</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5650,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5659,13 +5677,13 @@
         <v>1274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5698,13 @@
         <v>18346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -5695,13 +5713,13 @@
         <v>18564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>55</v>
@@ -5710,13 +5728,13 @@
         <v>36910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5749,13 @@
         <v>81245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H24" s="7">
         <v>116</v>
@@ -5746,13 +5764,13 @@
         <v>75458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
@@ -5761,19 +5779,19 @@
         <v>156703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>58</v>
@@ -5782,13 +5800,13 @@
         <v>35300</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -5797,13 +5815,13 @@
         <v>33162</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -5812,19 +5830,19 @@
         <v>68462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>22</v>
@@ -5833,13 +5851,13 @@
         <v>13597</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5848,13 +5866,13 @@
         <v>13659</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -5863,13 +5881,13 @@
         <v>27256</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5902,13 @@
         <v>149763</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
         <v>220</v>
@@ -5899,13 +5917,13 @@
         <v>140842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
         <v>452</v>
@@ -5914,13 +5932,13 @@
         <v>290605</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5955,13 @@
         <v>793</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5958,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5967,13 +5985,13 @@
         <v>793</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6006,13 @@
         <v>21196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -6003,13 +6021,13 @@
         <v>21970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M29" s="7">
         <v>56</v>
@@ -6018,13 +6036,13 @@
         <v>43166</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6057,13 @@
         <v>89915</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>113</v>
@@ -6054,13 +6072,13 @@
         <v>86965</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M30" s="7">
         <v>235</v>
@@ -6069,19 +6087,19 @@
         <v>176880</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>91</v>
@@ -6090,13 +6108,13 @@
         <v>66119</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -6105,13 +6123,13 @@
         <v>61222</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M31" s="7">
         <v>172</v>
@@ -6120,19 +6138,19 @@
         <v>127342</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>20</v>
@@ -6141,13 +6159,13 @@
         <v>15017</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -6156,13 +6174,13 @@
         <v>18671</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M32" s="7">
         <v>44</v>
@@ -6171,13 +6189,13 @@
         <v>33688</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>97</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6210,13 @@
         <v>193041</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>246</v>
@@ -6207,13 +6225,13 @@
         <v>188828</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>508</v>
@@ -6222,13 +6240,13 @@
         <v>381869</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6263,13 @@
         <v>3407</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>452</v>
+        <v>334</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -6263,10 +6281,10 @@
         <v>453</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>454</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>333</v>
+        <v>455</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -6275,13 +6293,13 @@
         <v>6120</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>455</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6314,13 @@
         <v>106917</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H35" s="7">
         <v>140</v>
@@ -6311,13 +6329,13 @@
         <v>98770</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M35" s="7">
         <v>287</v>
@@ -6326,13 +6344,13 @@
         <v>205687</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6365,13 @@
         <v>309046</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H36" s="7">
         <v>433</v>
@@ -6362,13 +6380,13 @@
         <v>302685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M36" s="7">
         <v>874</v>
@@ -6377,19 +6395,19 @@
         <v>611731</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>285</v>
@@ -6398,13 +6416,13 @@
         <v>196574</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>263</v>
@@ -6413,13 +6431,13 @@
         <v>180753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>548</v>
@@ -6428,19 +6446,19 @@
         <v>377327</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>107</v>
@@ -6449,13 +6467,13 @@
         <v>73900</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -6464,13 +6482,13 @@
         <v>67649</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>487</v>
+        <v>100</v>
       </c>
       <c r="M38" s="7">
         <v>207</v>
@@ -6479,13 +6497,13 @@
         <v>141549</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6518,13 @@
         <v>689844</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>940</v>
@@ -6515,13 +6533,13 @@
         <v>652569</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1925</v>
@@ -6530,18 +6548,18 @@
         <v>1342414</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49970E40-04B0-42E1-9927-BD574464EF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E9A821-EBA7-4458-8E7F-8A7F646E79C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6579,7 +6597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6692,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6707,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6722,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6755,13 @@
         <v>976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6752,13 +6770,13 @@
         <v>4265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6767,13 +6785,13 @@
         <v>5241</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6806,13 @@
         <v>15535</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6803,13 +6821,13 @@
         <v>8986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M6" s="7">
         <v>28</v>
@@ -6818,19 +6836,19 @@
         <v>24521</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
@@ -6839,13 +6857,13 @@
         <v>5105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6854,13 +6872,13 @@
         <v>3069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -6869,19 +6887,19 @@
         <v>8174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6890,13 +6908,13 @@
         <v>1107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6905,13 +6923,13 @@
         <v>5163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>522</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -6920,13 +6938,13 @@
         <v>6270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6959,13 @@
         <v>22723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -6956,13 +6974,13 @@
         <v>21483</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -6971,18 +6989,18 @@
         <v>44206</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6994,13 +7012,13 @@
         <v>1491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>528</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7015,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -7030,7 +7048,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,10 +7063,10 @@
         <v>7373</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>532</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>533</v>
@@ -7081,7 +7099,7 @@
         <v>538</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7114,13 @@
         <v>35044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -7111,13 +7129,13 @@
         <v>44175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M12" s="7">
         <v>111</v>
@@ -7126,19 +7144,19 @@
         <v>79218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>57</v>
@@ -7147,13 +7165,13 @@
         <v>42334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -7162,13 +7180,13 @@
         <v>35468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -7177,19 +7195,19 @@
         <v>77802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -7198,13 +7216,13 @@
         <v>29166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7213,13 +7231,13 @@
         <v>16098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>563</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -7228,13 +7246,13 @@
         <v>45264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7267,13 @@
         <v>115408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>150</v>
@@ -7264,13 +7282,13 @@
         <v>103034</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>305</v>
@@ -7279,13 +7297,13 @@
         <v>218442</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7320,13 @@
         <v>607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7323,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7332,13 +7350,13 @@
         <v>607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7371,13 @@
         <v>34891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -7368,13 +7386,13 @@
         <v>30580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -7383,13 +7401,13 @@
         <v>65471</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7422,13 @@
         <v>59394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -7419,13 +7437,13 @@
         <v>65913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>194</v>
@@ -7434,19 +7452,19 @@
         <v>125306</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>82</v>
@@ -7455,13 +7473,13 @@
         <v>55890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -7470,13 +7488,13 @@
         <v>49743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -7485,19 +7503,19 @@
         <v>105633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
         <v>88</v>
@@ -7506,13 +7524,13 @@
         <v>58520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>598</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>78</v>
@@ -7521,13 +7539,13 @@
         <v>47200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -7536,13 +7554,13 @@
         <v>105721</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7575,13 @@
         <v>209303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
         <v>310</v>
@@ -7572,13 +7590,13 @@
         <v>193435</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>619</v>
@@ -7587,18 +7605,18 @@
         <v>402738</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7610,13 +7628,13 @@
         <v>708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7625,13 +7643,13 @@
         <v>1414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7640,13 +7658,13 @@
         <v>2122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>612</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7679,13 @@
         <v>9883</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>610</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>611</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -7676,13 +7694,13 @@
         <v>12130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>617</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -7691,13 +7709,13 @@
         <v>22013</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,10 +7733,10 @@
         <v>193</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>622</v>
       </c>
       <c r="H24" s="7">
         <v>98</v>
@@ -7727,13 +7745,13 @@
         <v>59407</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="M24" s="7">
         <v>194</v>
@@ -7742,19 +7760,19 @@
         <v>125774</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>54</v>
@@ -7763,13 +7781,13 @@
         <v>36416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -7778,13 +7796,13 @@
         <v>30029</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>634</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -7793,19 +7811,19 @@
         <v>66445</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>70</v>
@@ -7814,13 +7832,13 @@
         <v>45667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -7829,13 +7847,13 @@
         <v>42775</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -7844,13 +7862,13 @@
         <v>88442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,16 +7880,16 @@
         <v>235</v>
       </c>
       <c r="D27" s="7">
-        <v>159041</v>
+        <v>159040</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
         <v>240</v>
@@ -7880,13 +7898,13 @@
         <v>145755</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
         <v>475</v>
@@ -7895,13 +7913,13 @@
         <v>304796</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7936,13 @@
         <v>713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7933,13 +7951,13 @@
         <v>2073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>645</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7948,13 +7966,13 @@
         <v>2786</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7987,13 @@
         <v>18595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>654</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -7984,13 +8002,13 @@
         <v>19763</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>651</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -8002,10 +8020,10 @@
         <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>657</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8038,13 @@
         <v>72799</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H30" s="7">
         <v>87</v>
@@ -8035,13 +8053,13 @@
         <v>64865</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8050,19 +8068,19 @@
         <v>137664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>73</v>
@@ -8071,13 +8089,13 @@
         <v>52253</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>664</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H31" s="7">
         <v>77</v>
@@ -8086,13 +8104,13 @@
         <v>55876</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="M31" s="7">
         <v>150</v>
@@ -8101,19 +8119,19 @@
         <v>108129</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>65</v>
@@ -8122,13 +8140,13 @@
         <v>45566</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -8137,13 +8155,13 @@
         <v>48535</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>675</v>
+        <v>577</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M32" s="7">
         <v>132</v>
@@ -8152,13 +8170,13 @@
         <v>94102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8191,13 @@
         <v>189927</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>259</v>
@@ -8188,13 +8206,13 @@
         <v>191112</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>526</v>
@@ -8203,13 +8221,13 @@
         <v>381039</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8244,13 @@
         <v>3520</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>45</v>
+        <v>683</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -8241,13 +8259,13 @@
         <v>3487</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>682</v>
+        <v>417</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -8256,13 +8274,13 @@
         <v>7006</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8295,13 @@
         <v>71718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="H35" s="7">
         <v>103</v>
@@ -8292,13 +8310,13 @@
         <v>74031</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M35" s="7">
         <v>203</v>
@@ -8307,10 +8325,10 @@
         <v>145750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>324</v>
@@ -8328,13 +8346,13 @@
         <v>249139</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>317</v>
+        <v>698</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H36" s="7">
         <v>363</v>
@@ -8343,13 +8361,13 @@
         <v>243346</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="M36" s="7">
         <v>716</v>
@@ -8358,19 +8376,19 @@
         <v>492484</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>272</v>
@@ -8379,13 +8397,13 @@
         <v>191998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H37" s="7">
         <v>266</v>
@@ -8394,13 +8412,13 @@
         <v>174184</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>522</v>
+        <v>710</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="M37" s="7">
         <v>538</v>
@@ -8409,19 +8427,19 @@
         <v>366182</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>478</v>
+        <v>713</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>263</v>
@@ -8430,13 +8448,13 @@
         <v>180027</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="H38" s="7">
         <v>245</v>
@@ -8445,13 +8463,13 @@
         <v>159772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="M38" s="7">
         <v>508</v>
@@ -8460,13 +8478,13 @@
         <v>339799</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8499,13 @@
         <v>696402</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>982</v>
@@ -8496,13 +8514,13 @@
         <v>654820</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1975</v>
@@ -8511,18 +8529,18 @@
         <v>1351221</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
